--- a/biology/Zoologie/Cyanophrys/Cyanophrys.xlsx
+++ b/biology/Zoologie/Cyanophrys/Cyanophrys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanophrys est un genre d'insectes lépidoptères de la famille des Lycaenidae et de la sous-famille des Theclinae présents en Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été nommé par Harry  Clench (d) en 1961.
 </t>
@@ -542,16 +556,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cyanophrys acaste (Prittwitz, 1865) présent en Bolivie, en Argentine et au Brésil.
 Cyanophrys agricolor (Butler &amp; Druce, 1872) présent au Mexique et à Panama.
-Cyanophrys amyntor (Cramer, [1775]) présent au Mexique, en Colombie, au Brésil, au Surinam et en Guyane.
+Cyanophrys amyntor (Cramer, ) présent au Mexique, en Colombie, au Brésil, au Surinam et en Guyane.
 Cyanophrys argentinensis (Clench, 1946) présent en Colombie, en Argentine et au Brésil.
 Cyanophrys banosensis (Clench, 1944) présent en Équateur.
 Cyanophrys bertha (Jones, 1912) présent au Brésil.
 Cyanophrys crethona (Hewitson, 1874) présent à la Jamaïque et à Cuba.
-Cyanophrys fusius (Godman &amp; Salvin, [1887]) présent au Mexique, à Panama et en Colombie
+Cyanophrys fusius (Godman &amp; Salvin, ) présent au Mexique, à Panama et en Colombie
 Cyanophrys goodsoni (Clench, 1946)  présent dans le sud du Texas, au Costa Rica et au Honduras.
 Cyanophrys herodotus (Fabricius, 1793) présent au Mexique, au Guatemala, à Panama, au Nicaragua, en Colombie, en Équateur, au Pérou, au Paraguay, en Argentine, au Brésil et en Guyane.
 Cyanophrys longula (Hewitson, 1868) présent au Mexique, au Costa Rica, en Colombie, en Équateur et en Bolivie.
@@ -559,7 +575,7 @@
 Cyanophrys pseudolongula (Clench, 1944)présent au Venezuela, en Bolivie, en Équateur, au Brésil, au Paraguay et en Argentine.
 Cyanophrys remus (Hewitson, 1868) présent sans le sud du Brésil et en Argentine.
 Cyanophrys roraimiensis Johnson &amp; Smith, 1993 présent au Brésil.
-Cyanophrys velezi Johnson &amp; Kruse, 1997 présent en Colombie[1],[2].</t>
+Cyanophrys velezi Johnson &amp; Kruse, 1997 présent en Colombie,.</t>
         </is>
       </c>
     </row>
@@ -587,9 +603,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Cyanophrys sont présentes en Amérique centrale et Amérique du Sud[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Cyanophrys sont présentes en Amérique centrale et Amérique du Sud.
 Sur les autres projets Wikimedia :
 Cyanophrys, sur Wikimedia CommonsCyanophrys, sur Wikispecies
 </t>
